--- a/Keiba/kikka_2019_2024_results.xlsx
+++ b/Keiba/kikka_2019_2024_results.xlsx
@@ -395,7 +395,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>タイム</t>
+          <t xml:space="preserve">タイム</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>川田将雅</t>
+          <t xml:space="preserve">川田将雅</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[西]
+          <t xml:space="preserve">[西]
 中内田充</t>
         </is>
       </c>
@@ -938,7 +938,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[西]
+          <t xml:space="preserve">[西]
 高橋義忠</t>
         </is>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="V9">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="V14">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>岩田康誠</t>
+          <t xml:space="preserve">岩田康誠</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>岩田康誠</t>
+          <t xml:space="preserve">岩田康誠</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>川田将雅</t>
+          <t xml:space="preserve">川田将雅</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>加藤誠</t>
+          <t xml:space="preserve">加藤誠</t>
         </is>
       </c>
       <c r="V37">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[東]
+          <t xml:space="preserve">[東]
 手塚貴久</t>
         </is>
       </c>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ロードトゥフェイム</t>
+          <t xml:space="preserve">ロードトゥフェイム</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>川田将雅</t>
+          <t xml:space="preserve">川田将雅</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="V66">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>川田将雅</t>
+          <t xml:space="preserve">川田将雅</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>岩田康誠</t>
+          <t xml:space="preserve">岩田康誠</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
@@ -6240,7 +6240,7 @@
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>[東]
+          <t xml:space="preserve">[東]
 手塚貴久</t>
         </is>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>加藤誠</t>
+          <t xml:space="preserve">加藤誠</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>グリーンファーム</t>
+          <t xml:space="preserve">グリーンファーム</t>
         </is>
       </c>
       <c r="V79">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>川田将雅</t>
+          <t xml:space="preserve">川田将雅</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -7332,7 +7332,7 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>[西]
+          <t xml:space="preserve">[西]
 中内田充</t>
         </is>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>キャロットファーム</t>
+          <t xml:space="preserve">キャロットファーム</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ビザンチンドリーム</t>
+          <t xml:space="preserve">ビザンチンドリーム</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>岩田康誠</t>
+          <t xml:space="preserve">岩田康誠</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>メリオーレム</t>
+          <t xml:space="preserve">メリオーレム</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Ｍ．デム</t>
+          <t xml:space="preserve">Ｍ．デム</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>ビッグレッドファーム</t>
+          <t xml:space="preserve">ビッグレッドファーム</t>
         </is>
       </c>
       <c r="V104">
